--- a/Lux_Approximation_from_LDR.xlsx
+++ b/Lux_Approximation_from_LDR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Documents\Uni\Internet of Things\sde_iotexam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A96DC-BF52-4F3E-9C6D-E5D9AD808D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B33872-0A49-4FC6-9A36-2F38FE9536DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
@@ -348,6 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -359,9 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3893,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,14 +3912,14 @@
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3928,12 +3928,12 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3942,12 +3942,12 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3956,12 +3956,12 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3970,12 +3970,12 @@
       <c r="C5">
         <v>54</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3984,12 +3984,12 @@
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3998,12 +3998,12 @@
       <c r="C7">
         <v>200</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4012,12 +4012,12 @@
       <c r="C8">
         <v>250</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4026,14 +4026,14 @@
       <c r="C9">
         <v>300</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4042,12 +4042,12 @@
       <c r="C10">
         <v>350</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4056,12 +4056,12 @@
       <c r="C11">
         <v>400</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4152,7 +4152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -4169,7 +4169,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -4177,7 +4177,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -4373,7 +4373,7 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="9">
@@ -4400,7 +4400,7 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="C11" s="9">
         <f>'Raw Data'!A9</f>
         <v>143.69</v>
@@ -4425,7 +4425,7 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="C12" s="9">
         <f>'Raw Data'!A10</f>
         <v>140.81</v>
